--- a/biology/Zoologie/Erythrolamprus_torrenicola/Erythrolamprus_torrenicola.xlsx
+++ b/biology/Zoologie/Erythrolamprus_torrenicola/Erythrolamprus_torrenicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus torrenicola  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus torrenicola  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Venezuela[1]. Elle a été découverte à 1 030 m d'altitude sur le Cerro Guaiquinima. Elle se rencontre dans les États de Bolívar et d'Amazonas[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Venezuela. Elle a été découverte à 1 030 m d'altitude sur le Cerro Guaiquinima. Elle se rencontre dans les États de Bolívar et d'Amazonas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Erythrolamprus torrenicola[3], un mâle adulte, mesure 457 mm dont 79 mm pour la queue. Cette espèce a le dos et la tête brun foncé et une face ventrale présentant un motif en damier. Cette espèce est au moins en partie aquatique. L'holotype a été capturé avec un poisson (Piabucina uruyensis) dans sa gueule.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Erythrolamprus torrenicola, un mâle adulte, mesure 457 mm dont 79 mm pour la queue. Cette espèce a le dos et la tête brun foncé et une face ventrale présentant un motif en damier. Cette espèce est au moins en partie aquatique. L'holotype a été capturé avec un poisson (Piabucina uruyensis) dans sa gueule.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin torrens, « courant rapide », et de cola, « habitant », lui a été donné en référence à son habitat[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin torrens, « courant rapide », et de cola, « habitant », lui a été donné en référence à son habitat.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Donnelly &amp; Myers, 1991 : Herpetological results of the 1990 Venezuelan Expedition to the summit of Cerro Guaiquinima, with new tepui reptiles. American Museum Novitates, no 3017, p. 1-54 (texte intégral).</t>
         </is>
